--- a/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
+++ b/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sramos/Documents/CV/Classes/PopGenomics_Adaptation_Course-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sramos/Documents/CV/Classes/PopGenomics_Adaptation_Course-2022/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B4C04-3281-D440-B198-7F046B507405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B854D5F-F07D-624C-A422-C8CA4BD28C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7260" windowWidth="30240" windowHeight="10600" xr2:uid="{22CD8A5B-674F-4841-A11F-1094D6C1F9F5}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
-  <si>
-    <t>FuLi</t>
-  </si>
-  <si>
-    <t>Watt</t>
-  </si>
-  <si>
-    <t>Taj</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>tendency</t>
   </si>
@@ -63,51 +51,6 @@
   </si>
   <si>
     <t>    </t>
-  </si>
-  <si>
-    <t>SNMR0</t>
-  </si>
-  <si>
-    <t>SNMRh</t>
-  </si>
-  <si>
-    <t>SSR0</t>
-  </si>
-  <si>
-    <t>SSRh</t>
-  </si>
-  <si>
-    <t>SNM-RED</t>
-  </si>
-  <si>
-    <t>SNM-EXP</t>
-  </si>
-  <si>
-    <t>DELF</t>
-  </si>
-  <si>
-    <t>DELG</t>
-  </si>
-  <si>
-    <t>DEL-EXP</t>
-  </si>
-  <si>
-    <t>PSL-DELF</t>
-  </si>
-  <si>
-    <t>PSH-DELF</t>
-  </si>
-  <si>
-    <t>PSM-DELF</t>
-  </si>
-  <si>
-    <t>PSH</t>
-  </si>
-  <si>
-    <t>PSM</t>
-  </si>
-  <si>
-    <t>PSL</t>
   </si>
   <si>
     <t>model</t>
@@ -522,7 +465,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,69 +491,69 @@
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="J2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="P2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -624,7 +567,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -663,7 +606,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -684,7 +627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC396465-A8CF-A541-B49B-240FFDADFEBE}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
@@ -692,277 +635,101 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-6.8913632753788701E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-5.8886303732259559E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-1.6321282624034206E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.4634210432699208E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>-0.2190209613543419</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-3.4384057657517619E-2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-1.9726508528773001E-2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.5265949414001843E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>-6.6731550813139417E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-3.9645152118593208E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-4.203544739300713E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2.5659244497753142E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <v>-0.19826218689571418</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-0.10690892759560078</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-0.13949415378158281</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-2.5502926967626349E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>-0.11858626569524078</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-0.14583278642545783</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-0.11154531734727002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-0.25974944494353891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>-8.2288674562805975E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.0286544921095375E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6.9524294851515123E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8.1770247374234661E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-1.9341764729339501</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-0.96081779781834054</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-0.47599968360672862</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-2.2287923005974264E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-1.389964603846106</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-0.69497747195697346</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-0.42189970135861787</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-3.3656340779747884E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
-        <v>-1.8383362492859332</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-0.92374056165277585</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-0.31138997058665407</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.22541767703624138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5">
-        <v>-1.9656531704783737</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-0.80496596870250814</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-0.37025540545067148</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.19269873584881791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5">
-        <v>-0.72690205677846254</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.25612716285454584</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-1.5985298642669843E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.10877199438614327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5">
-        <v>-0.57518130539887191</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-0.19934785048206072</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-3.7224981947932667E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.0121730500278776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.55009281843097091</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.43897705832629108</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.40006362998526579</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.15381113603256535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.32526366786701222</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.28004163054822828</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.27235489869548368</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6.1392976953104861E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.19438263386244359</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.1879521024320332</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.17946680623156364</v>
-      </c>
-      <c r="E16" s="5">
-        <v>6.1149672645152364E-2</v>
-      </c>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
+++ b/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sramos/Documents/CV/Classes/PopGenomics_Adaptation_Course-2022/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sramos/Documents/CV/Classes/PopGenomics_Adaptation_Course-2023/2023/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B854D5F-F07D-624C-A422-C8CA4BD28C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75538292-373C-A94E-BB47-14BAE08DAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7260" windowWidth="30240" windowHeight="10600" xr2:uid="{22CD8A5B-674F-4841-A11F-1094D6C1F9F5}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>tendency</t>
   </si>
   <si>
     <t>OBSERVED</t>
-  </si>
-  <si>
-    <t>alpha Theta</t>
   </si>
   <si>
     <t>alpha SFS</t>
@@ -128,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,10 +138,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDE03A-4769-CF46-8F92-59B531E036B7}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,112 +474,84 @@
     <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -598,15 +563,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -617,8 +577,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A13">
     <sortCondition ref="A5:A13"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
+++ b/PopGenomicsAdaptation.SebastianERamosOnsins/Practical/table_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sramos/Documents/CV/Classes/PopGenomics_Adaptation_Course-2023/2023/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75538292-373C-A94E-BB47-14BAE08DAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AA989-974D-2447-9547-341162DE6D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7260" windowWidth="30240" windowHeight="10600" xr2:uid="{22CD8A5B-674F-4841-A11F-1094D6C1F9F5}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>tendency</t>
-  </si>
-  <si>
-    <t>OBSERVED</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>alpha SFS</t>
   </si>
@@ -69,9 +63,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -455,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDE03A-4769-CF46-8F92-59B531E036B7}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,110 +463,82 @@
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A13">
-    <sortCondition ref="A5:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A9">
+    <sortCondition ref="A5:A9"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
